--- a/Figure_data/figure6.xlsx
+++ b/Figure_data/figure6.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">chromosome</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t xml:space="preserve">GLS_Fisher_gamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultivariableGLS</t>
   </si>
   <si>
     <t xml:space="preserve">AK4</t>
@@ -467,13 +470,16 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>65147549</v>
@@ -490,13 +496,14 @@
       <c r="G2" t="n">
         <v>0.913923733715832</v>
       </c>
+      <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>100186919</v>
@@ -513,13 +520,14 @@
       <c r="G3" t="n">
         <v>0.0515375128493991</v>
       </c>
+      <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
         <v>119659798</v>
@@ -536,13 +544,14 @@
       <c r="G4" t="n">
         <v>0.416390784715524</v>
       </c>
+      <c r="H4"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
         <v>165630861</v>
@@ -559,13 +568,14 @@
       <c r="G5" t="n">
         <v>0.861173722353446</v>
       </c>
+      <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
         <v>169105697</v>
@@ -582,13 +592,14 @@
       <c r="G6" t="n">
         <v>0.0018064637219179</v>
       </c>
+      <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
         <v>173477266</v>
@@ -605,13 +616,14 @@
       <c r="G7" t="n">
         <v>0.114651371099957</v>
       </c>
+      <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
         <v>183248237</v>
@@ -628,13 +640,14 @@
       <c r="G8" t="n">
         <v>0.752538905554521</v>
       </c>
+      <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
         <v>58427630</v>
@@ -651,13 +664,14 @@
       <c r="G9" t="n">
         <v>0.498163118898279</v>
       </c>
+      <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
         <v>103079435</v>
@@ -674,13 +688,14 @@
       <c r="G10" t="n">
         <v>0.686398262725029</v>
       </c>
+      <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="n">
         <v>170060222</v>
@@ -697,13 +712,14 @@
       <c r="G11" t="n">
         <v>0.795450291474774</v>
       </c>
+      <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
         <v>184755595</v>
@@ -720,13 +736,14 @@
       <c r="G12" t="n">
         <v>0.870356268103246</v>
       </c>
+      <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="n">
         <v>43602692</v>
@@ -743,13 +760,14 @@
       <c r="G13" t="n">
         <v>0.152244682063856</v>
       </c>
+      <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="n">
         <v>166409364</v>
@@ -765,6 +783,9 @@
       </c>
       <c r="G14" t="n">
         <v>0.27372023487585</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.16040923326447</v>
       </c>
     </row>
     <row r="15">
@@ -772,7 +793,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="n">
         <v>56011051</v>
@@ -789,13 +810,14 @@
       <c r="G15" t="n">
         <v>0.104669076341271</v>
       </c>
+      <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="n">
         <v>76048051</v>
@@ -812,13 +834,14 @@
       <c r="G16" t="n">
         <v>0.101488572392428</v>
       </c>
+      <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="n">
         <v>107890970</v>
@@ -835,13 +858,14 @@
       <c r="G17" t="n">
         <v>0.468730860724079</v>
       </c>
+      <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="n">
         <v>143244093</v>
@@ -858,13 +882,14 @@
       <c r="G18" t="n">
         <v>0.0306395409429453</v>
       </c>
+      <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="n">
         <v>72114595</v>
@@ -881,13 +906,14 @@
       <c r="G19" t="n">
         <v>0.0145049136480768</v>
       </c>
+      <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="n">
         <v>127866480</v>
@@ -904,13 +930,14 @@
       <c r="G20" t="n">
         <v>0.247133573198254</v>
       </c>
+      <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="n">
         <v>70815961</v>
@@ -927,13 +954,14 @@
       <c r="G21" t="n">
         <v>0.576921530981013</v>
       </c>
+      <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" t="n">
         <v>4094707</v>
@@ -950,13 +978,14 @@
       <c r="G22" t="n">
         <v>0.143041609451352</v>
       </c>
+      <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="n">
         <v>90083045</v>
@@ -973,13 +1002,14 @@
       <c r="G23" t="n">
         <v>0.370302386119609</v>
       </c>
+      <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" t="n">
         <v>89921392</v>
@@ -996,13 +1026,14 @@
       <c r="G24" t="n">
         <v>0.130626389933383</v>
       </c>
+      <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" t="n">
         <v>2303383</v>
@@ -1019,13 +1050,14 @@
       <c r="G25" t="n">
         <v>0.157122997107345</v>
       </c>
+      <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" t="n">
         <v>1040101</v>
@@ -1042,13 +1074,14 @@
       <c r="G26" t="n">
         <v>0.000207431366230397</v>
       </c>
+      <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" t="n">
         <v>42297033</v>
@@ -1065,13 +1098,14 @@
       <c r="G27" t="n">
         <v>0.283974650684971</v>
       </c>
+      <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" t="n">
         <v>8077251</v>
@@ -1087,6 +1121,9 @@
       </c>
       <c r="G28" t="n">
         <v>0.999371722423818</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.261681087042431</v>
       </c>
     </row>
   </sheetData>

--- a/Figure_data/figure6.xlsx
+++ b/Figure_data/figure6.xlsx
@@ -496,7 +496,9 @@
       <c r="G2" t="n">
         <v>0.913923733715832</v>
       </c>
-      <c r="H2"/>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -520,7 +522,9 @@
       <c r="G3" t="n">
         <v>0.0515375128493991</v>
       </c>
-      <c r="H3"/>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -544,7 +548,9 @@
       <c r="G4" t="n">
         <v>0.416390784715524</v>
       </c>
-      <c r="H4"/>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -568,7 +574,9 @@
       <c r="G5" t="n">
         <v>0.861173722353446</v>
       </c>
-      <c r="H5"/>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -592,7 +600,9 @@
       <c r="G6" t="n">
         <v>0.0018064637219179</v>
       </c>
-      <c r="H6"/>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -616,7 +626,9 @@
       <c r="G7" t="n">
         <v>0.114651371099957</v>
       </c>
-      <c r="H7"/>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -640,7 +652,9 @@
       <c r="G8" t="n">
         <v>0.752538905554521</v>
       </c>
-      <c r="H8"/>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -664,7 +678,9 @@
       <c r="G9" t="n">
         <v>0.498163118898279</v>
       </c>
-      <c r="H9"/>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -688,7 +704,9 @@
       <c r="G10" t="n">
         <v>0.686398262725029</v>
       </c>
-      <c r="H10"/>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -712,7 +730,9 @@
       <c r="G11" t="n">
         <v>0.795450291474774</v>
       </c>
-      <c r="H11"/>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -736,7 +756,9 @@
       <c r="G12" t="n">
         <v>0.870356268103246</v>
       </c>
-      <c r="H12"/>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -760,7 +782,9 @@
       <c r="G13" t="n">
         <v>0.152244682063856</v>
       </c>
-      <c r="H13"/>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -810,7 +834,9 @@
       <c r="G15" t="n">
         <v>0.104669076341271</v>
       </c>
-      <c r="H15"/>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -834,7 +860,9 @@
       <c r="G16" t="n">
         <v>0.101488572392428</v>
       </c>
-      <c r="H16"/>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -858,7 +886,9 @@
       <c r="G17" t="n">
         <v>0.468730860724079</v>
       </c>
-      <c r="H17"/>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -882,7 +912,9 @@
       <c r="G18" t="n">
         <v>0.0306395409429453</v>
       </c>
-      <c r="H18"/>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -906,7 +938,9 @@
       <c r="G19" t="n">
         <v>0.0145049136480768</v>
       </c>
-      <c r="H19"/>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -930,7 +964,9 @@
       <c r="G20" t="n">
         <v>0.247133573198254</v>
       </c>
-      <c r="H20"/>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -954,7 +990,9 @@
       <c r="G21" t="n">
         <v>0.576921530981013</v>
       </c>
-      <c r="H21"/>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -978,7 +1016,9 @@
       <c r="G22" t="n">
         <v>0.143041609451352</v>
       </c>
-      <c r="H22"/>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1002,7 +1042,9 @@
       <c r="G23" t="n">
         <v>0.370302386119609</v>
       </c>
-      <c r="H23"/>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1026,7 +1068,9 @@
       <c r="G24" t="n">
         <v>0.130626389933383</v>
       </c>
-      <c r="H24"/>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1050,7 +1094,9 @@
       <c r="G25" t="n">
         <v>0.157122997107345</v>
       </c>
-      <c r="H25"/>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1074,7 +1120,9 @@
       <c r="G26" t="n">
         <v>0.000207431366230397</v>
       </c>
-      <c r="H26"/>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1098,7 +1146,9 @@
       <c r="G27" t="n">
         <v>0.283974650684971</v>
       </c>
-      <c r="H27"/>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
